--- a/resources/ModeloEntidadRelacionDB.xlsx
+++ b/resources/ModeloEntidadRelacionDB.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t xml:space="preserve">Vector</t>
   </si>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">Imagen</t>
   </si>
   <si>
-    <t xml:space="preserve">id_persona_owner</t>
+    <t xml:space="preserve">id_usuario_owner</t>
   </si>
   <si>
     <t xml:space="preserve">fechaRegistro</t>
@@ -141,6 +141,12 @@
     <t xml:space="preserve">Usuario</t>
   </si>
   <si>
+    <t xml:space="preserve">id_persona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
     <t xml:space="preserve">email</t>
   </si>
   <si>
@@ -153,6 +159,9 @@
     <t xml:space="preserve">WilliamRodriguez</t>
   </si>
   <si>
+    <t xml:space="preserve">awefa</t>
+  </si>
+  <si>
     <t xml:space="preserve">wisrovi.rodriguez@gmail.com</t>
   </si>
   <si>
@@ -216,7 +225,7 @@
     <t xml:space="preserve">Log</t>
   </si>
   <si>
-    <t xml:space="preserve">id_persona</t>
+    <t xml:space="preserve">id_user</t>
   </si>
   <si>
     <t xml:space="preserve">usado_bytes</t>
@@ -234,7 +243,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -259,6 +268,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -361,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -406,6 +422,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -415,6 +435,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -525,8 +553,8 @@
   </sheetPr>
   <dimension ref="B2:I66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H63" activeCellId="0" sqref="H63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -864,24 +892,32 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -889,151 +925,161 @@
       <c r="B35" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="12" t="n">
+      <c r="C35" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F35" s="13" t="n">
+      <c r="H35" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="G35" s="6" t="n">
+      <c r="I35" s="6" t="n">
         <v>44120</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="4"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="B39" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="14" t="s">
+      <c r="B40" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="13" t="n">
+      <c r="B41" s="14" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>44120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="13" t="n">
+      <c r="B42" s="14" t="n">
         <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>44120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="13" t="n">
+      <c r="B43" s="14" t="n">
         <v>3</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>44120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="13" t="n">
+      <c r="B44" s="14" t="n">
         <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>44120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="B46" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="15" t="s">
+      <c r="B47" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>49</v>
+      <c r="F47" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="15" t="n">
+      <c r="B48" s="18" t="n">
         <v>1</v>
       </c>
       <c r="C48" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E48" s="6" t="n">
         <v>44120.3333333333</v>
@@ -1043,88 +1089,88 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="15"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="5"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="15"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="5"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="15"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="5"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="15"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="5"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
+      <c r="B54" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="17" t="s">
+      <c r="B55" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="16" t="n">
+      <c r="B56" s="19" t="n">
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E56" s="19" t="n">
+      <c r="E56" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="F56" s="20" t="n">
+      <c r="F56" s="23" t="n">
         <v>5000000</v>
       </c>
-      <c r="G56" s="19" t="n">
+      <c r="G56" s="22" t="n">
         <v>2</v>
       </c>
       <c r="H56" s="6" t="n">
@@ -1135,38 +1181,38 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="16"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="16"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="16"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1178,13 +1224,13 @@
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>5</v>
@@ -1224,14 +1270,14 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B33:I33"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="B54:I54"/>
     <mergeCell ref="B61:F61"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D35" r:id="rId2" display="wisrovi.rodriguez@gmail.com"/>
+    <hyperlink ref="F35" r:id="rId2" display="wisrovi.rodriguez@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
